--- a/Statistici2.xlsx
+++ b/Statistici2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>orase = 51</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>orase=76</t>
+  </si>
+  <si>
+    <t>algoritm=Simulated-Annealing</t>
   </si>
 </sst>
 </file>
@@ -188,516 +191,444 @@
   </cellStyles>
   <dxfs count="52">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -722,18 +653,90 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
         <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -754,69 +757,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D5:G25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="46" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D5:G25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="51"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="43" dataDxfId="50"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="44" dataDxfId="49"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="45" dataDxfId="48"/>
+    <tableColumn id="1" name="Column1" dataDxfId="49"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="48" dataDxfId="47"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="46" dataDxfId="45"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="44" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K5:N19" headerRowCount="0" totalsRowShown="0" headerRowDxfId="37" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K5:N19" headerRowCount="0" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" headerRowDxfId="33" dataDxfId="42"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="34" dataDxfId="41"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="35" dataDxfId="40"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="36" dataDxfId="39"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="40" dataDxfId="39"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="38" dataDxfId="37"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="36" dataDxfId="35"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="34" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="D31:G44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="29" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="D31:G44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="25"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="26" dataDxfId="24"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="27" dataDxfId="32"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="28" dataDxfId="31"/>
+    <tableColumn id="1" name="Column1" dataDxfId="30"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="29" dataDxfId="28"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="25" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="D50:F62" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="D50:F62" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="16" dataDxfId="23"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="17" dataDxfId="22"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="18" dataDxfId="21"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="17" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="J50:L62" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="J50:L62" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="8" dataDxfId="15"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="9" dataDxfId="14"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="10" dataDxfId="13"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="9" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="D69:F81" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="D69:F81" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="0" dataDxfId="7"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="1" dataDxfId="6"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="2" dataDxfId="5"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1110,7 +1113,7 @@
   <dimension ref="D2:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1119,7 +1122,7 @@
     <col min="5" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="14" width="11" customWidth="1"/>
   </cols>
@@ -1965,17 +1968,23 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="66" spans="4:6">
+    <row r="66" spans="4:12">
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="4:6">
+      <c r="J66" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="4:12">
       <c r="D67" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="4:6">
+      <c r="J67" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="4:12">
       <c r="D69" s="4" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +1994,17 @@
       <c r="F69" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="4:6">
+      <c r="J69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:12">
       <c r="D70" s="3">
         <v>1</v>
       </c>
@@ -1996,8 +2014,17 @@
       <c r="F70" s="3">
         <v>174</v>
       </c>
-    </row>
-    <row r="71" spans="4:6">
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3">
+        <v>477</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="71" spans="4:12">
       <c r="D71" s="3">
         <v>2</v>
       </c>
@@ -2007,8 +2034,17 @@
       <c r="F71" s="3">
         <v>159</v>
       </c>
-    </row>
-    <row r="72" spans="4:6">
+      <c r="J71" s="3">
+        <v>2</v>
+      </c>
+      <c r="K71" s="3">
+        <v>441</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="72" spans="4:12">
       <c r="D72" s="3">
         <v>3</v>
       </c>
@@ -2018,8 +2054,17 @@
       <c r="F72" s="3">
         <v>136</v>
       </c>
-    </row>
-    <row r="73" spans="4:6">
+      <c r="J72" s="3">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>449</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="73" spans="4:12">
       <c r="D73" s="3">
         <v>4</v>
       </c>
@@ -2029,8 +2074,17 @@
       <c r="F73" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="74" spans="4:6">
+      <c r="J73" s="3">
+        <v>4</v>
+      </c>
+      <c r="K73" s="3">
+        <v>458</v>
+      </c>
+      <c r="L73" s="3">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="74" spans="4:12">
       <c r="D74" s="3">
         <v>5</v>
       </c>
@@ -2040,8 +2094,17 @@
       <c r="F74" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="75" spans="4:6">
+      <c r="J74" s="3">
+        <v>5</v>
+      </c>
+      <c r="K74" s="3">
+        <v>464</v>
+      </c>
+      <c r="L74" s="3">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="75" spans="4:12">
       <c r="D75" s="3">
         <v>6</v>
       </c>
@@ -2051,8 +2114,17 @@
       <c r="F75" s="3">
         <v>128</v>
       </c>
-    </row>
-    <row r="76" spans="4:6">
+      <c r="J75" s="3">
+        <v>6</v>
+      </c>
+      <c r="K75" s="3">
+        <v>496</v>
+      </c>
+      <c r="L75" s="3">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="76" spans="4:12">
       <c r="D76" s="3">
         <v>7</v>
       </c>
@@ -2062,8 +2134,17 @@
       <c r="F76" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="77" spans="4:6">
+      <c r="J76" s="3">
+        <v>7</v>
+      </c>
+      <c r="K76" s="3">
+        <v>464</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="77" spans="4:12">
       <c r="D77" s="3">
         <v>8</v>
       </c>
@@ -2073,8 +2154,17 @@
       <c r="F77" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="78" spans="4:6">
+      <c r="J77" s="3">
+        <v>8</v>
+      </c>
+      <c r="K77" s="3">
+        <v>467</v>
+      </c>
+      <c r="L77" s="3">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="78" spans="4:12">
       <c r="D78" s="3">
         <v>9</v>
       </c>
@@ -2084,8 +2174,17 @@
       <c r="F78" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="79" spans="4:6">
+      <c r="J78" s="3">
+        <v>9</v>
+      </c>
+      <c r="K78" s="3">
+        <v>513</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="79" spans="4:12">
       <c r="D79" s="3">
         <v>10</v>
       </c>
@@ -2095,13 +2194,22 @@
       <c r="F79" s="3">
         <v>169</v>
       </c>
-    </row>
-    <row r="80" spans="4:6">
+      <c r="J79" s="3">
+        <v>10</v>
+      </c>
+      <c r="K79" s="3">
+        <v>506</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="80" spans="4:12">
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="4:6">
+    <row r="81" spans="4:11">
       <c r="D81" s="10" t="s">
         <v>24</v>
       </c>
@@ -2110,6 +2218,13 @@
         <v>752.8</v>
       </c>
       <c r="F81" s="3"/>
+      <c r="J81" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81">
+        <f>AVERAGE(K70:K79)</f>
+        <v>473.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
